--- a/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/Faith/2.8.4/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/Faith/2.8.4/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fse\it-fse-accreditamento\GATEWAY\A1#200000SWHSHARK\e-Shark S.r.l\Faith\2.8.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC0F3BD-23D0-4D6B-9A6A-E644CF7CEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D46D1-2813-4EEA-AEFF-3E8A60140322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42990" yWindow="3975" windowWidth="29010" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="875">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4648,6 +4648,9 @@
   </si>
   <si>
     <t>subject_application_version: 2.8.4</t>
+  </si>
+  <si>
+    <t>Il software non gestisce i dati strutturati</t>
   </si>
 </sst>
 </file>
@@ -5074,6 +5077,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5091,22 +5110,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5404,11 +5407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.140625" customWidth="1"/>
+    <col min="1" max="1" width="174.42578125" customWidth="1"/>
     <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5432,7 +5437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:1" ht="96.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -7569,10 +7574,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomRight" activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7610,12 +7615,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="40"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7633,14 +7638,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>871</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="40"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7658,12 +7663,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>872</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7682,12 +7687,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>873</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7705,8 +7710,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8832,7 +8837,7 @@
       <c r="J39" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="33" t="s">
         <v>849</v>
       </c>
       <c r="L39" s="25"/>
@@ -9108,7 +9113,7 @@
       <c r="J47" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K47" s="45" t="s">
+      <c r="K47" s="33" t="s">
         <v>850</v>
       </c>
       <c r="L47" s="25"/>
@@ -9385,7 +9390,7 @@
       <c r="E55" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="35">
         <v>45078</v>
       </c>
       <c r="G55" s="24"/>
@@ -9401,13 +9406,13 @@
       <c r="M55" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="N55" s="45" t="s">
+      <c r="N55" s="33" t="s">
         <v>851</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="P55" s="46" t="s">
+      <c r="P55" s="34" t="s">
         <v>852</v>
       </c>
       <c r="Q55" s="25"/>
@@ -12777,8 +12782,12 @@
       <c r="G154" s="24"/>
       <c r="H154" s="24"/>
       <c r="I154" s="24"/>
-      <c r="J154" s="25"/>
-      <c r="K154" s="25"/>
+      <c r="J154" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K154" s="33" t="s">
+        <v>874</v>
+      </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
       <c r="N154" s="25"/>
@@ -12811,8 +12820,12 @@
       <c r="G155" s="24"/>
       <c r="H155" s="24"/>
       <c r="I155" s="24"/>
-      <c r="J155" s="25"/>
-      <c r="K155" s="25"/>
+      <c r="J155" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K155" s="33" t="s">
+        <v>874</v>
+      </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
       <c r="N155" s="25"/>
@@ -12845,8 +12858,12 @@
       <c r="G156" s="24"/>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
-      <c r="J156" s="25"/>
-      <c r="K156" s="25"/>
+      <c r="J156" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K156" s="33" t="s">
+        <v>874</v>
+      </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
       <c r="N156" s="25"/>
@@ -12879,8 +12896,12 @@
       <c r="G157" s="24"/>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
+      <c r="J157" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="K157" s="33" t="s">
+        <v>874</v>
+      </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
       <c r="N157" s="25"/>
@@ -12916,7 +12937,7 @@
       <c r="J158" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K158" s="45" t="s">
+      <c r="K158" s="33" t="s">
         <v>856</v>
       </c>
       <c r="L158" s="25"/>
@@ -12954,7 +12975,7 @@
       <c r="J159" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K159" s="45" t="s">
+      <c r="K159" s="33" t="s">
         <v>857</v>
       </c>
       <c r="L159" s="25"/>
@@ -12992,7 +13013,7 @@
       <c r="J160" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K160" s="46" t="s">
+      <c r="K160" s="34" t="s">
         <v>858</v>
       </c>
       <c r="L160" s="25"/>
@@ -13030,7 +13051,7 @@
       <c r="J161" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K161" s="45" t="s">
+      <c r="K161" s="33" t="s">
         <v>859</v>
       </c>
       <c r="L161" s="25"/>
@@ -13068,7 +13089,7 @@
       <c r="J162" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K162" s="45" t="s">
+      <c r="K162" s="33" t="s">
         <v>860</v>
       </c>
       <c r="L162" s="25"/>
@@ -13106,7 +13127,7 @@
       <c r="J163" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K163" s="45" t="s">
+      <c r="K163" s="33" t="s">
         <v>861</v>
       </c>
       <c r="L163" s="25"/>
@@ -13144,7 +13165,7 @@
       <c r="J164" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K164" s="45" t="s">
+      <c r="K164" s="33" t="s">
         <v>862</v>
       </c>
       <c r="L164" s="25"/>
@@ -13182,7 +13203,7 @@
       <c r="J165" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K165" s="45" t="s">
+      <c r="K165" s="33" t="s">
         <v>863</v>
       </c>
       <c r="L165" s="25"/>
@@ -13220,7 +13241,7 @@
       <c r="J166" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K166" s="45" t="s">
+      <c r="K166" s="33" t="s">
         <v>864</v>
       </c>
       <c r="L166" s="25"/>
@@ -13258,7 +13279,7 @@
       <c r="J167" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K167" s="45" t="s">
+      <c r="K167" s="33" t="s">
         <v>865</v>
       </c>
       <c r="L167" s="25"/>
@@ -13296,7 +13317,7 @@
       <c r="J168" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K168" s="45" t="s">
+      <c r="K168" s="33" t="s">
         <v>866</v>
       </c>
       <c r="L168" s="25"/>
@@ -13334,7 +13355,7 @@
       <c r="J169" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K169" s="45" t="s">
+      <c r="K169" s="33" t="s">
         <v>867</v>
       </c>
       <c r="L169" s="25"/>
@@ -13372,7 +13393,7 @@
       <c r="J170" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K170" s="45" t="s">
+      <c r="K170" s="33" t="s">
         <v>868</v>
       </c>
       <c r="L170" s="25"/>
@@ -13410,7 +13431,7 @@
       <c r="J171" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K171" s="45" t="s">
+      <c r="K171" s="33" t="s">
         <v>869</v>
       </c>
       <c r="L171" s="25"/>
@@ -13448,7 +13469,7 @@
       <c r="J172" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K172" s="45" t="s">
+      <c r="K172" s="33" t="s">
         <v>869</v>
       </c>
       <c r="L172" s="25"/>
@@ -13486,7 +13507,7 @@
       <c r="J173" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K173" s="45" t="s">
+      <c r="K173" s="33" t="s">
         <v>869</v>
       </c>
       <c r="L173" s="25"/>
@@ -13524,7 +13545,7 @@
       <c r="J174" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K174" s="45" t="s">
+      <c r="K174" s="33" t="s">
         <v>869</v>
       </c>
       <c r="L174" s="25"/>
@@ -13562,7 +13583,7 @@
       <c r="J175" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K175" s="45" t="s">
+      <c r="K175" s="33" t="s">
         <v>869</v>
       </c>
       <c r="L175" s="25"/>
@@ -13600,7 +13621,7 @@
       <c r="J176" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="K176" s="45" t="s">
+      <c r="K176" s="33" t="s">
         <v>870</v>
       </c>
       <c r="L176" s="25"/>
@@ -20567,16 +20588,16 @@
       <c r="E381" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="F381" s="47">
+      <c r="F381" s="35">
         <v>45082</v>
       </c>
-      <c r="G381" s="48" t="s">
+      <c r="G381" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="H381" s="48" t="s">
+      <c r="H381" s="36" t="s">
         <v>854</v>
       </c>
-      <c r="I381" s="48" t="s">
+      <c r="I381" s="36" t="s">
         <v>855</v>
       </c>
       <c r="J381" s="25" t="s">
